--- a/public/mockdata.xlsx
+++ b/public/mockdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tranhart-order-management\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60FAB815-10C4-4849-912A-1852290077D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7240A29-38C5-4196-A928-58662630C7CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{440E64E9-F501-4E5F-99C7-C0DF2EDDC537}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{440E64E9-F501-4E5F-99C7-C0DF2EDDC537}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shop Aoi" sheetId="1" r:id="rId1"/>
+    <sheet name="Shop Tritone" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Ngày đặt hàng</t>
   </si>
@@ -166,6 +167,45 @@
   </si>
   <si>
     <t>13,260,000₫</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/listing/1737321074/large-original-oil-painting-abstract-art?transaction_id=4430638455</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Cuộn</t>
+  </si>
+  <si>
+    <t>Carol Elder</t>
+  </si>
+  <si>
+    <t>760 723-9837</t>
+  </si>
+  <si>
+    <t>40401A De Luz Rd Fallbrook, CA 92028 United States</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>116x11x11=2.8-2.2</t>
+  </si>
+  <si>
+    <t>₫25,420</t>
+  </si>
+  <si>
+    <t>12,811,680₫</t>
+  </si>
+  <si>
+    <t>2,029,787₫</t>
+  </si>
+  <si>
+    <t>10,781,893₫</t>
+  </si>
+  <si>
+    <t>SALEOFF 20%</t>
   </si>
 </sst>
 </file>
@@ -175,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +252,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -320,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -369,6 +423,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE40001-3B36-4D8E-9A69-1AB84083C508}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,4 +952,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B361955-DCF1-48B4-BDCD-A7C65556A199}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="22">
+        <v>45688</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="25">
+        <v>102</v>
+      </c>
+      <c r="G2" s="25">
+        <v>152</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="26">
+        <v>504</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="26">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>